--- a/biology/Botanique/Château_de_Tracy/Château_de_Tracy.xlsx
+++ b/biology/Botanique/Château_de_Tracy/Château_de_Tracy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Tracy</t>
+          <t>Château_de_Tracy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Tracy est un édifice situé à Tracy-sur-Loire, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Tracy</t>
+          <t>Château_de_Tracy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château se trouve à l'est de la commune de Tracy-sur-Loire, au niveau d'une retenue d'eau. Il est situé sur la rive droite de la Loire. Le GR3 passe à proximité, dans le département de la Nièvre, en région Bourgogne-Franche-Comté[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château se trouve à l'est de la commune de Tracy-sur-Loire, au niveau d'une retenue d'eau. Il est situé sur la rive droite de la Loire. Le GR3 passe à proximité, dans le département de la Nièvre, en région Bourgogne-Franche-Comté.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Tracy</t>
+          <t>Château_de_Tracy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, le château de Tracy, de style Renaissance, est construit en carré, avec quatre tours d'angles circulaires. Il est entouré de fossés[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, le château de Tracy, de style Renaissance, est construit en carré, avec quatre tours d'angles circulaires. Il est entouré de fossés.
 Depuis le XVe siècle, c'est un grand domaine viticole de 33 ha.
-Le domaine se trouve au milieu de vignes et produit un pouilly-fumé renommé[3].
+Le domaine se trouve au milieu de vignes et produit un pouilly-fumé renommé.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Tracy</t>
+          <t>Château_de_Tracy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Origines
-Un parchemin, datant de 1396, atteste que la vigne est déjà cultivée sur les terres du château[3].
-À la fin du XVIIIe siècle, le château devient la propriété d'Antoine Destutt de Tracy[2].
-Le domaine appartient à la famille des Stutt depuis le XVIe siècle, une famille d'origine écossaise[4],[5],[6],[7].
-L'écrivain Georges Simenon y a écrit ses premiers romans[8].
-Il est inscrit partiellement au titre des monuments historiques par arrêtés du 28 août 1967 (pavillon d'entrée et donjon) et le 11 avril 2007 (structures, façades, toitures)[9].
-Liste des propriétaires
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un parchemin, datant de 1396, atteste que la vigne est déjà cultivée sur les terres du château.
+À la fin du XVIIIe siècle, le château devient la propriété d'Antoine Destutt de Tracy.
+Le domaine appartient à la famille des Stutt depuis le XVIe siècle, une famille d'origine écossaise.
+L'écrivain Georges Simenon y a écrit ses premiers romans.
+Il est inscrit partiellement au titre des monuments historiques par arrêtés du 28 août 1967 (pavillon d'entrée et donjon) et le 11 avril 2007 (structures, façades, toitures).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_de_Tracy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Tracy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des propriétaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Famille de Stutt de Tracy
 François II de Stutt (1560 - ?), seigneur de Tracy, marié en première noce à Françoise de Bar (1545 - 1593), dame de Tracy. Il obtient la terre de Tracy par son mariage.
 François III de Stutt de Tracy (? - 1668), seigneur de Tracy, fils du précédent.
@@ -592,45 +649,47 @@
 Antoine de Stutt de Tracy (1694 - 1776), comte de Tracy, fils du précédent.
 Antoine Destutt de Tracy (1754 - 1836), marquis de Tracy, petit-fils du précédent.
 Victor Destutt de Tracy (1781 - 1864), marquis de Tracy, fils du précédent.
-Marie-Élisabeth Destutt de Tracy (1817 - 1907), baronne de Magnoncourt, fille du précédent, mariée en première noce à Flavien Henrion Staal de Magnoncourt (1800 - 1875), baron de Magnoncourt. Il obtient le château de Tracy par son mariage[8].
+Marie-Élisabeth Destutt de Tracy (1817 - 1907), baronne de Magnoncourt, fille du précédent, mariée en première noce à Flavien Henrion Staal de Magnoncourt (1800 - 1875), baron de Magnoncourt. Il obtient le château de Tracy par son mariage.
 Famille Henrion Staal de Magnoncourt
 Jacques Henrion Staal de Magnoncourt de Tracy (1838 - 1921), marquis de Tracy, fils des précédents.
 Raymond Henrion Staal de Magnoncourt de Tracy (1878 - 1947), marquis de Tracy, fils du précédent.
 Jacqueline Henrion Staal de Magnoncourt de Tracy (1926 - 2006), comtesse d'Assay, fille du précédent, mariée à Alain d'Estutt d'Assay (1911 - 1987), comte d'Assay. Il obtient le château de Tracy par son mariage.
 Famille d'Estutt d'Assay
-Henry d'Estutt d'Assay (1954 -), comte d'Assay, fils des précédents. Il est l'actuel propriétaire du château[8].
+Henry d'Estutt d'Assay (1954 -), comte d'Assay, fils des précédents. Il est l'actuel propriétaire du château.
 [réf. nécessaire]</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_de_Tracy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_de_Tracy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Tracy</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Valorisation du patrimoine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs scènes de La Femme fidèle sont tournées en 1976 au château par Roger Vadim avec notamment Nathalie Delon et Sylvia Kristel.
-Il accueille régulièrement des événements[8].
+Il accueille régulièrement des événements.
 Le domaine viticole et les jardins sont ouverts au public.
 </t>
         </is>
